--- a/src/main/resources/My_Custom_Conferences.xlsx
+++ b/src/main/resources/My_Custom_Conferences.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="279">
   <si>
     <t>TGID</t>
   </si>
@@ -1339,10 +1339,10 @@
   <dimension ref="A1:BA1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9961,13 +9961,15 @@
       <c r="F118" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G118" s="16" t="s">
+      <c r="G118" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="H118" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="H118" s="16" t="s">
+      <c r="I118" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I118" s="31"/>
       <c r="J118" s="31"/>
       <c r="K118" s="31"/>
       <c r="L118" s="31"/>

--- a/src/main/resources/My_Custom_Conferences.xlsx
+++ b/src/main/resources/My_Custom_Conferences.xlsx
@@ -1339,10 +1339,10 @@
   <dimension ref="A1:BA1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomRight" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="123" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>257</v>
